--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Qrfp-P2ry14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Qrfp</t>
+  </si>
+  <si>
+    <t>P2ry14</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Qrfp</t>
-  </si>
-  <si>
-    <t>P2ry14</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3205933333333333</v>
+        <v>0.259189</v>
       </c>
       <c r="H2">
-        <v>0.9617800000000001</v>
+        <v>0.518378</v>
       </c>
       <c r="I2">
-        <v>0.1415509660671672</v>
+        <v>0.1837975229301632</v>
       </c>
       <c r="J2">
-        <v>0.1483039217318952</v>
+        <v>0.1558987974170948</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.4883793333333333</v>
+        <v>0.004317</v>
       </c>
       <c r="N2">
-        <v>1.465138</v>
+        <v>0.008633999999999999</v>
       </c>
       <c r="O2">
-        <v>0.03607734954509023</v>
+        <v>0.0009265576932941649</v>
       </c>
       <c r="P2">
-        <v>0.0361183505353887</v>
+        <v>0.000653100521731553</v>
       </c>
       <c r="Q2">
-        <v>0.1565711584044444</v>
+        <v>0.001118918913</v>
       </c>
       <c r="R2">
-        <v>1.40914042564</v>
+        <v>0.004475675651999999</v>
       </c>
       <c r="S2">
-        <v>0.005106783681250396</v>
+        <v>0.0001702990088793534</v>
       </c>
       <c r="T2">
-        <v>0.005356493030885442</v>
+        <v>0.0001018175859304263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.259189</v>
+      </c>
+      <c r="H3">
+        <v>0.518378</v>
+      </c>
+      <c r="I3">
+        <v>0.1837975229301632</v>
+      </c>
+      <c r="J3">
+        <v>0.1558987974170948</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.3205933333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.9617800000000001</v>
-      </c>
-      <c r="I3">
-        <v>0.1415509660671672</v>
-      </c>
-      <c r="J3">
-        <v>0.1483039217318952</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>3.388124333333334</v>
+        <v>0.4883793333333333</v>
       </c>
       <c r="N3">
-        <v>10.164373</v>
+        <v>1.465138</v>
       </c>
       <c r="O3">
-        <v>0.2502860738221775</v>
+        <v>0.1048208544234133</v>
       </c>
       <c r="P3">
-        <v>0.2505705175802146</v>
+        <v>0.1108272402372856</v>
       </c>
       <c r="Q3">
-        <v>1.086210073771111</v>
+        <v>0.1265825510273333</v>
       </c>
       <c r="R3">
-        <v>9.775890663940002</v>
+        <v>0.759495306164</v>
       </c>
       <c r="S3">
-        <v>0.03542823554268754</v>
+        <v>0.01926581339444661</v>
       </c>
       <c r="T3">
-        <v>0.03716059042753663</v>
+        <v>0.01727783347404829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.3205933333333333</v>
+        <v>0.259189</v>
       </c>
       <c r="H4">
-        <v>0.9617800000000001</v>
+        <v>0.518378</v>
       </c>
       <c r="I4">
-        <v>0.1415509660671672</v>
+        <v>0.1837975229301632</v>
       </c>
       <c r="J4">
-        <v>0.1483039217318952</v>
+        <v>0.1558987974170948</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.046101</v>
+        <v>0.1889186666666667</v>
       </c>
       <c r="N4">
-        <v>0.09220200000000001</v>
+        <v>0.566756</v>
       </c>
       <c r="O4">
-        <v>0.003405553384141709</v>
+        <v>0.04054761269559322</v>
       </c>
       <c r="P4">
-        <v>0.002272949139305587</v>
+        <v>0.04287104925810611</v>
       </c>
       <c r="Q4">
-        <v>0.01477967326</v>
+        <v>0.04896564029466667</v>
       </c>
       <c r="R4">
-        <v>0.08867803956000002</v>
+        <v>0.293793841768</v>
       </c>
       <c r="S4">
-        <v>0.0004820593715185693</v>
+        <v>0.007452550774181672</v>
       </c>
       <c r="T4">
-        <v>0.0003370872712561545</v>
+        <v>0.006683545023347777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.3205933333333333</v>
+        <v>0.259189</v>
       </c>
       <c r="H5">
-        <v>0.9617800000000001</v>
+        <v>0.518378</v>
       </c>
       <c r="I5">
-        <v>0.1415509660671672</v>
+        <v>0.1837975229301632</v>
       </c>
       <c r="J5">
-        <v>0.1483039217318952</v>
+        <v>0.1558987974170948</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.211763</v>
+        <v>0.753209</v>
       </c>
       <c r="N5">
-        <v>0.635289</v>
+        <v>1.506418</v>
       </c>
       <c r="O5">
-        <v>0.01564326590065293</v>
+        <v>0.1616612447552478</v>
       </c>
       <c r="P5">
-        <v>0.01566104407453534</v>
+        <v>0.1139497778255505</v>
       </c>
       <c r="Q5">
-        <v>0.06788980604666667</v>
+        <v>0.195223487501</v>
       </c>
       <c r="R5">
-        <v>0.6110082544200001</v>
+        <v>0.7808939500040001</v>
       </c>
       <c r="S5">
-        <v>0.002214319400682996</v>
+        <v>0.02971293633982139</v>
       </c>
       <c r="T5">
-        <v>0.002322594254669651</v>
+        <v>0.01776463332894845</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.3205933333333333</v>
+        <v>0.259189</v>
       </c>
       <c r="H6">
-        <v>0.9617800000000001</v>
+        <v>0.518378</v>
       </c>
       <c r="I6">
-        <v>0.1415509660671672</v>
+        <v>0.1837975229301632</v>
       </c>
       <c r="J6">
-        <v>0.1483039217318952</v>
+        <v>0.1558987974170948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.402639333333333</v>
+        <v>1.768706666666667</v>
       </c>
       <c r="N6">
-        <v>28.207918</v>
+        <v>5.30612</v>
       </c>
       <c r="O6">
-        <v>0.6945877573479375</v>
+        <v>0.3796175050221631</v>
       </c>
       <c r="P6">
-        <v>0.6953771386705557</v>
+        <v>0.4013701343954399</v>
       </c>
       <c r="Q6">
-        <v>3.014423486004445</v>
+        <v>0.4584293122266667</v>
       </c>
       <c r="R6">
-        <v>27.12981137404</v>
+        <v>2.75057587336</v>
       </c>
       <c r="S6">
-        <v>0.09831956807102764</v>
+        <v>0.06977275708400238</v>
       </c>
       <c r="T6">
-        <v>0.1031271567475474</v>
+        <v>0.06257312127138681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.259189</v>
+      </c>
+      <c r="H7">
+        <v>0.518378</v>
+      </c>
+      <c r="I7">
+        <v>0.1837975229301632</v>
+      </c>
+      <c r="J7">
+        <v>0.1558987974170948</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.4913206666666667</v>
-      </c>
-      <c r="H7">
-        <v>1.473962</v>
-      </c>
-      <c r="I7">
-        <v>0.2169318815594978</v>
-      </c>
-      <c r="J7">
-        <v>0.2272810258934348</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4883793333333333</v>
+        <v>1.455650333333333</v>
       </c>
       <c r="N7">
-        <v>1.465138</v>
+        <v>4.366950999999999</v>
       </c>
       <c r="O7">
-        <v>0.03607734954509023</v>
+        <v>0.3124262254102885</v>
       </c>
       <c r="P7">
-        <v>0.0361183505353887</v>
+        <v>0.3303286977618864</v>
       </c>
       <c r="Q7">
-        <v>0.2399508596395555</v>
+        <v>0.3772885542463333</v>
       </c>
       <c r="R7">
-        <v>2.159557736756</v>
+        <v>2.263731325478</v>
       </c>
       <c r="S7">
-        <v>0.007826327318496118</v>
+        <v>0.05742316632883183</v>
       </c>
       <c r="T7">
-        <v>0.008209015763261834</v>
+        <v>0.05149784673343306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.4913206666666667</v>
+        <v>0.3205933333333333</v>
       </c>
       <c r="H8">
-        <v>1.473962</v>
+        <v>0.9617800000000001</v>
       </c>
       <c r="I8">
-        <v>0.2169318815594978</v>
+        <v>0.2273409000173263</v>
       </c>
       <c r="J8">
-        <v>0.2272810258934348</v>
+        <v>0.2892490525828902</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>3.388124333333334</v>
+        <v>0.004317</v>
       </c>
       <c r="N8">
-        <v>10.164373</v>
+        <v>0.008633999999999999</v>
       </c>
       <c r="O8">
-        <v>0.2502860738221775</v>
+        <v>0.0009265576932941649</v>
       </c>
       <c r="P8">
-        <v>0.2505705175802146</v>
+        <v>0.000653100521731553</v>
       </c>
       <c r="Q8">
-        <v>1.664655506202889</v>
+        <v>0.00138400142</v>
       </c>
       <c r="R8">
-        <v>14.981899555826</v>
+        <v>0.00830400852</v>
       </c>
       <c r="S8">
-        <v>0.05429502892238434</v>
+        <v>0.0002106444599114732</v>
       </c>
       <c r="T8">
-        <v>0.05694992429428013</v>
+        <v>0.000188908707152243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.4913206666666667</v>
+        <v>0.3205933333333333</v>
       </c>
       <c r="H9">
-        <v>1.473962</v>
+        <v>0.9617800000000001</v>
       </c>
       <c r="I9">
-        <v>0.2169318815594978</v>
+        <v>0.2273409000173263</v>
       </c>
       <c r="J9">
-        <v>0.2272810258934348</v>
+        <v>0.2892490525828902</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.046101</v>
+        <v>0.4883793333333333</v>
       </c>
       <c r="N9">
-        <v>0.09220200000000001</v>
+        <v>1.465138</v>
       </c>
       <c r="O9">
-        <v>0.003405553384141709</v>
+        <v>0.1048208544234133</v>
       </c>
       <c r="P9">
-        <v>0.002272949139305587</v>
+        <v>0.1108272402372856</v>
       </c>
       <c r="Q9">
-        <v>0.022650374054</v>
+        <v>0.1565711584044444</v>
       </c>
       <c r="R9">
-        <v>0.135902244324</v>
+        <v>1.40914042564</v>
       </c>
       <c r="S9">
-        <v>0.0007387731033731762</v>
+        <v>0.02383006738520393</v>
       </c>
       <c r="T9">
-        <v>0.0005165982121849735</v>
+        <v>0.03205667423901123</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3205933333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.9617800000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.2273409000173263</v>
+      </c>
+      <c r="J10">
+        <v>0.2892490525828902</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4913206666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.473962</v>
-      </c>
-      <c r="I10">
-        <v>0.2169318815594978</v>
-      </c>
-      <c r="J10">
-        <v>0.2272810258934348</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.211763</v>
+        <v>0.1889186666666667</v>
       </c>
       <c r="N10">
-        <v>0.635289</v>
+        <v>0.566756</v>
       </c>
       <c r="O10">
-        <v>0.01564326590065293</v>
+        <v>0.04054761269559322</v>
       </c>
       <c r="P10">
-        <v>0.01566104407453534</v>
+        <v>0.04287104925810611</v>
       </c>
       <c r="Q10">
-        <v>0.1040435383353333</v>
+        <v>0.06056606507555556</v>
       </c>
       <c r="R10">
-        <v>0.936391845018</v>
+        <v>0.5450945856800001</v>
       </c>
       <c r="S10">
-        <v>0.003393523105564172</v>
+        <v>0.009218130763770128</v>
       </c>
       <c r="T10">
-        <v>0.00355945816382269</v>
+        <v>0.01240041038114161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,155 +1086,155 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4913206666666667</v>
+        <v>0.3205933333333333</v>
       </c>
       <c r="H11">
-        <v>1.473962</v>
+        <v>0.9617800000000001</v>
       </c>
       <c r="I11">
-        <v>0.2169318815594978</v>
+        <v>0.2273409000173263</v>
       </c>
       <c r="J11">
-        <v>0.2272810258934348</v>
+        <v>0.2892490525828902</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.402639333333333</v>
+        <v>0.753209</v>
       </c>
       <c r="N11">
-        <v>28.207918</v>
+        <v>1.506418</v>
       </c>
       <c r="O11">
-        <v>0.6945877573479375</v>
+        <v>0.1616612447552478</v>
       </c>
       <c r="P11">
-        <v>0.6953771386705557</v>
+        <v>0.1139497778255505</v>
       </c>
       <c r="Q11">
-        <v>4.619711025679556</v>
+        <v>0.2414737840066667</v>
       </c>
       <c r="R11">
-        <v>41.577399231116</v>
+        <v>1.44884270404</v>
       </c>
       <c r="S11">
-        <v>0.15067822910968</v>
+        <v>0.03675221288057931</v>
       </c>
       <c r="T11">
-        <v>0.1580460294598852</v>
+        <v>0.0329598652780713</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3093885</v>
+        <v>0.3205933333333333</v>
       </c>
       <c r="H12">
-        <v>0.618777</v>
+        <v>0.9617800000000001</v>
       </c>
       <c r="I12">
-        <v>0.1366037172692458</v>
+        <v>0.2273409000173263</v>
       </c>
       <c r="J12">
-        <v>0.09541377006955534</v>
+        <v>0.2892490525828902</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4883793333333333</v>
+        <v>1.768706666666667</v>
       </c>
       <c r="N12">
-        <v>1.465138</v>
+        <v>5.30612</v>
       </c>
       <c r="O12">
-        <v>0.03607734954509023</v>
+        <v>0.3796175050221631</v>
       </c>
       <c r="P12">
-        <v>0.0361183505353887</v>
+        <v>0.4013701343954399</v>
       </c>
       <c r="Q12">
-        <v>0.151098949371</v>
+        <v>0.5670355659555556</v>
       </c>
       <c r="R12">
-        <v>0.9065936962259999</v>
+        <v>5.103320093600001</v>
       </c>
       <c r="S12">
-        <v>0.00492830005708126</v>
+        <v>0.08630258525407046</v>
       </c>
       <c r="T12">
-        <v>0.003446187993275179</v>
+        <v>0.1160959311089483</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3093885</v>
+        <v>0.3205933333333333</v>
       </c>
       <c r="H13">
-        <v>0.618777</v>
+        <v>0.9617800000000001</v>
       </c>
       <c r="I13">
-        <v>0.1366037172692458</v>
+        <v>0.2273409000173263</v>
       </c>
       <c r="J13">
-        <v>0.09541377006955534</v>
+        <v>0.2892490525828902</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.388124333333334</v>
+        <v>1.455650333333333</v>
       </c>
       <c r="N13">
-        <v>10.164373</v>
+        <v>4.366950999999999</v>
       </c>
       <c r="O13">
-        <v>0.2502860738221775</v>
+        <v>0.3124262254102885</v>
       </c>
       <c r="P13">
-        <v>0.2505705175802146</v>
+        <v>0.3303286977618864</v>
       </c>
       <c r="Q13">
-        <v>1.0482467053035</v>
+        <v>0.466671792531111</v>
       </c>
       <c r="R13">
-        <v>6.289480231821001</v>
+        <v>4.20004613278</v>
       </c>
       <c r="S13">
-        <v>0.03419000806483432</v>
+        <v>0.07102725927379104</v>
       </c>
       <c r="T13">
-        <v>0.02390787775060808</v>
+        <v>0.09554726286856552</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.646281</v>
+      </c>
+      <c r="H14">
+        <v>1.292562</v>
+      </c>
+      <c r="I14">
+        <v>0.458294321583203</v>
+      </c>
+      <c r="J14">
+        <v>0.3887295783907397</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.5</v>
       </c>
-      <c r="G14">
-        <v>0.3093885</v>
-      </c>
-      <c r="H14">
-        <v>0.618777</v>
-      </c>
-      <c r="I14">
-        <v>0.1366037172692458</v>
-      </c>
-      <c r="J14">
-        <v>0.09541377006955534</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>0.046101</v>
+        <v>0.004317</v>
       </c>
       <c r="N14">
-        <v>0.09220200000000001</v>
+        <v>0.008633999999999999</v>
       </c>
       <c r="O14">
-        <v>0.003405553384141709</v>
+        <v>0.0009265576932941649</v>
       </c>
       <c r="P14">
-        <v>0.002272949139305587</v>
+        <v>0.000653100521731553</v>
       </c>
       <c r="Q14">
-        <v>0.0142631192385</v>
+        <v>0.002789995077</v>
       </c>
       <c r="R14">
-        <v>0.05705247695400001</v>
+        <v>0.011159980308</v>
       </c>
       <c r="S14">
-        <v>0.0004652112516326172</v>
+        <v>0.0004246361294559468</v>
       </c>
       <c r="T14">
-        <v>0.000216870646557497</v>
+        <v>0.0002538794904594788</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3093885</v>
+        <v>0.646281</v>
       </c>
       <c r="H15">
-        <v>0.618777</v>
+        <v>1.292562</v>
       </c>
       <c r="I15">
-        <v>0.1366037172692458</v>
+        <v>0.458294321583203</v>
       </c>
       <c r="J15">
-        <v>0.09541377006955534</v>
+        <v>0.3887295783907397</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.211763</v>
+        <v>0.4883793333333333</v>
       </c>
       <c r="N15">
-        <v>0.635289</v>
+        <v>1.465138</v>
       </c>
       <c r="O15">
-        <v>0.01564326590065293</v>
+        <v>0.1048208544234133</v>
       </c>
       <c r="P15">
-        <v>0.01566104407453534</v>
+        <v>0.1108272402372856</v>
       </c>
       <c r="Q15">
-        <v>0.06551703692550001</v>
+        <v>0.315630283926</v>
       </c>
       <c r="R15">
-        <v>0.393102221553</v>
+        <v>1.893781703556</v>
       </c>
       <c r="S15">
-        <v>0.002136928272260426</v>
+        <v>0.04803880236574989</v>
       </c>
       <c r="T15">
-        <v>0.001494279258376887</v>
+        <v>0.04308182637164927</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3093885</v>
+        <v>0.646281</v>
       </c>
       <c r="H16">
-        <v>0.618777</v>
+        <v>1.292562</v>
       </c>
       <c r="I16">
-        <v>0.1366037172692458</v>
+        <v>0.458294321583203</v>
       </c>
       <c r="J16">
-        <v>0.09541377006955534</v>
+        <v>0.3887295783907397</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,122 +1429,122 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.402639333333333</v>
+        <v>0.1889186666666667</v>
       </c>
       <c r="N16">
-        <v>28.207918</v>
+        <v>0.566756</v>
       </c>
       <c r="O16">
-        <v>0.6945877573479375</v>
+        <v>0.04054761269559322</v>
       </c>
       <c r="P16">
-        <v>0.6953771386705557</v>
+        <v>0.04287104925810611</v>
       </c>
       <c r="Q16">
-        <v>2.909068479381</v>
+        <v>0.122094544812</v>
       </c>
       <c r="R16">
-        <v>17.454410876286</v>
+        <v>0.7325672688720001</v>
       </c>
       <c r="S16">
-        <v>0.09488326962343717</v>
+        <v>0.01858274065214536</v>
       </c>
       <c r="T16">
-        <v>0.0663485544207377</v>
+        <v>0.01666524490327222</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2190303333333333</v>
+        <v>0.646281</v>
       </c>
       <c r="H17">
-        <v>0.657091</v>
+        <v>1.292562</v>
       </c>
       <c r="I17">
-        <v>0.09670804741629159</v>
+        <v>0.458294321583203</v>
       </c>
       <c r="J17">
-        <v>0.1013216871163184</v>
+        <v>0.3887295783907397</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4883793333333333</v>
+        <v>0.753209</v>
       </c>
       <c r="N17">
-        <v>1.465138</v>
+        <v>1.506418</v>
       </c>
       <c r="O17">
-        <v>0.03607734954509023</v>
+        <v>0.1616612447552478</v>
       </c>
       <c r="P17">
-        <v>0.0361183505353887</v>
+        <v>0.1139497778255505</v>
       </c>
       <c r="Q17">
-        <v>0.1069698881731111</v>
+        <v>0.486784665729</v>
       </c>
       <c r="R17">
-        <v>0.9627289935579999</v>
+        <v>1.947138662916</v>
       </c>
       <c r="S17">
-        <v>0.003488970030460712</v>
+        <v>0.07408843049140242</v>
       </c>
       <c r="T17">
-        <v>0.003659572212104167</v>
+        <v>0.0442956490918447</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2190303333333333</v>
+        <v>0.646281</v>
       </c>
       <c r="H18">
-        <v>0.657091</v>
+        <v>1.292562</v>
       </c>
       <c r="I18">
-        <v>0.09670804741629159</v>
+        <v>0.458294321583203</v>
       </c>
       <c r="J18">
-        <v>0.1013216871163184</v>
+        <v>0.3887295783907397</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,90 +1553,90 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.388124333333334</v>
+        <v>1.768706666666667</v>
       </c>
       <c r="N18">
-        <v>10.164373</v>
+        <v>5.30612</v>
       </c>
       <c r="O18">
-        <v>0.2502860738221775</v>
+        <v>0.3796175050221631</v>
       </c>
       <c r="P18">
-        <v>0.2505705175802146</v>
+        <v>0.4013701343954399</v>
       </c>
       <c r="Q18">
-        <v>0.7421020021047778</v>
+        <v>1.14308151324</v>
       </c>
       <c r="R18">
-        <v>6.678918018943</v>
+        <v>6.85848907944</v>
       </c>
       <c r="S18">
-        <v>0.0242046774948326</v>
+        <v>0.1739765469252404</v>
       </c>
       <c r="T18">
-        <v>0.02538822758283648</v>
+        <v>0.1560244431221739</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2190303333333333</v>
+        <v>0.646281</v>
       </c>
       <c r="H19">
-        <v>0.657091</v>
+        <v>1.292562</v>
       </c>
       <c r="I19">
-        <v>0.09670804741629159</v>
+        <v>0.458294321583203</v>
       </c>
       <c r="J19">
-        <v>0.1013216871163184</v>
+        <v>0.3887295783907397</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.046101</v>
+        <v>1.455650333333333</v>
       </c>
       <c r="N19">
-        <v>0.09220200000000001</v>
+        <v>4.366950999999999</v>
       </c>
       <c r="O19">
-        <v>0.003405553384141709</v>
+        <v>0.3124262254102885</v>
       </c>
       <c r="P19">
-        <v>0.002272949139305587</v>
+        <v>0.3303286977618864</v>
       </c>
       <c r="Q19">
-        <v>0.010097517397</v>
+        <v>0.9407591530769998</v>
       </c>
       <c r="R19">
-        <v>0.060585104382</v>
+        <v>5.644554918461999</v>
       </c>
       <c r="S19">
-        <v>0.0003293444181522886</v>
+        <v>0.143183165019209</v>
       </c>
       <c r="T19">
-        <v>0.000230299041524026</v>
+        <v>0.1284085354113402</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.2190303333333333</v>
+        <v>0.1841243333333333</v>
       </c>
       <c r="H20">
-        <v>0.657091</v>
+        <v>0.552373</v>
       </c>
       <c r="I20">
-        <v>0.09670804741629159</v>
+        <v>0.1305672554693075</v>
       </c>
       <c r="J20">
-        <v>0.1013216871163184</v>
+        <v>0.1661225716092753</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.211763</v>
+        <v>0.004317</v>
       </c>
       <c r="N20">
-        <v>0.635289</v>
+        <v>0.008633999999999999</v>
       </c>
       <c r="O20">
-        <v>0.01564326590065293</v>
+        <v>0.0009265576932941649</v>
       </c>
       <c r="P20">
-        <v>0.01566104407453534</v>
+        <v>0.000653100521731553</v>
       </c>
       <c r="Q20">
-        <v>0.04638252047766667</v>
+        <v>0.000794864747</v>
       </c>
       <c r="R20">
-        <v>0.417442684299</v>
+        <v>0.004769188482</v>
       </c>
       <c r="S20">
-        <v>0.001512829700466001</v>
+        <v>0.0001209780950473915</v>
       </c>
       <c r="T20">
-        <v>0.001586803407634943</v>
+        <v>0.000108494738189405</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,371 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.2190303333333333</v>
+        <v>0.1841243333333333</v>
       </c>
       <c r="H21">
-        <v>0.657091</v>
+        <v>0.552373</v>
       </c>
       <c r="I21">
-        <v>0.09670804741629159</v>
+        <v>0.1305672554693075</v>
       </c>
       <c r="J21">
-        <v>0.1013216871163184</v>
+        <v>0.1661225716092753</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>9.402639333333333</v>
+        <v>0.4883793333333333</v>
       </c>
       <c r="N21">
-        <v>28.207918</v>
+        <v>1.465138</v>
       </c>
       <c r="O21">
-        <v>0.6945877573479375</v>
+        <v>0.1048208544234133</v>
       </c>
       <c r="P21">
-        <v>0.6953771386705557</v>
+        <v>0.1108272402372856</v>
       </c>
       <c r="Q21">
-        <v>2.059463227393111</v>
+        <v>0.08992251916377776</v>
       </c>
       <c r="R21">
-        <v>18.535169046538</v>
+        <v>0.8093026724739999</v>
       </c>
       <c r="S21">
-        <v>0.06717222577237998</v>
+        <v>0.0136861712780129</v>
       </c>
       <c r="T21">
-        <v>0.07045678487221883</v>
+        <v>0.01841090615257684</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
       <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.1841243333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.552373</v>
+      </c>
+      <c r="I22">
+        <v>0.1305672554693075</v>
+      </c>
+      <c r="J22">
+        <v>0.1661225716092753</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.9245286666666667</v>
-      </c>
-      <c r="H22">
-        <v>2.773586</v>
-      </c>
-      <c r="I22">
-        <v>0.4082053876877975</v>
-      </c>
-      <c r="J22">
-        <v>0.4276795951887961</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4883793333333333</v>
+        <v>0.1889186666666667</v>
       </c>
       <c r="N22">
-        <v>1.465138</v>
+        <v>0.566756</v>
       </c>
       <c r="O22">
-        <v>0.03607734954509023</v>
+        <v>0.04054761269559322</v>
       </c>
       <c r="P22">
-        <v>0.0361183505353887</v>
+        <v>0.04287104925810611</v>
       </c>
       <c r="Q22">
-        <v>0.4515206938742222</v>
+        <v>0.03478452355422222</v>
       </c>
       <c r="R22">
-        <v>4.063686244867999</v>
+        <v>0.313060711988</v>
       </c>
       <c r="S22">
-        <v>0.01472696845780174</v>
+        <v>0.005294190505496057</v>
       </c>
       <c r="T22">
-        <v>0.01544708153586208</v>
+        <v>0.0071218489503445</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.9245286666666667</v>
+        <v>0.1841243333333333</v>
       </c>
       <c r="H23">
-        <v>2.773586</v>
+        <v>0.552373</v>
       </c>
       <c r="I23">
-        <v>0.4082053876877975</v>
+        <v>0.1305672554693075</v>
       </c>
       <c r="J23">
-        <v>0.4276795951887961</v>
+        <v>0.1661225716092753</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.388124333333334</v>
+        <v>0.753209</v>
       </c>
       <c r="N23">
-        <v>10.164373</v>
+        <v>1.506418</v>
       </c>
       <c r="O23">
-        <v>0.2502860738221775</v>
+        <v>0.1616612447552478</v>
       </c>
       <c r="P23">
-        <v>0.2505705175802146</v>
+        <v>0.1139497778255505</v>
       </c>
       <c r="Q23">
-        <v>3.132418072397556</v>
+        <v>0.1386841049856667</v>
       </c>
       <c r="R23">
-        <v>28.191762651578</v>
+        <v>0.832104629914</v>
       </c>
       <c r="S23">
-        <v>0.1021681237974387</v>
+        <v>0.02110766504344469</v>
       </c>
       <c r="T23">
-        <v>0.1071638975249533</v>
+        <v>0.01892963012668602</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.1841243333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.552373</v>
+      </c>
+      <c r="I24">
+        <v>0.1305672554693075</v>
+      </c>
+      <c r="J24">
+        <v>0.1661225716092753</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.9245286666666667</v>
-      </c>
-      <c r="H24">
-        <v>2.773586</v>
-      </c>
-      <c r="I24">
-        <v>0.4082053876877975</v>
-      </c>
-      <c r="J24">
-        <v>0.4276795951887961</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.046101</v>
+        <v>1.768706666666667</v>
       </c>
       <c r="N24">
-        <v>0.09220200000000001</v>
+        <v>5.30612</v>
       </c>
       <c r="O24">
-        <v>0.003405553384141709</v>
+        <v>0.3796175050221631</v>
       </c>
       <c r="P24">
-        <v>0.002272949139305587</v>
+        <v>0.4013701343954399</v>
       </c>
       <c r="Q24">
-        <v>0.042621696062</v>
+        <v>0.3256619358622222</v>
       </c>
       <c r="R24">
-        <v>0.255730176372</v>
+        <v>2.93095742276</v>
       </c>
       <c r="S24">
-        <v>0.001390165239465057</v>
+        <v>0.04956561575884991</v>
       </c>
       <c r="T24">
-        <v>0.0009720939677829361</v>
+        <v>0.06667663889293092</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1841243333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.552373</v>
+      </c>
+      <c r="I25">
+        <v>0.1305672554693075</v>
+      </c>
+      <c r="J25">
+        <v>0.1661225716092753</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.9245286666666667</v>
-      </c>
-      <c r="H25">
-        <v>2.773586</v>
-      </c>
-      <c r="I25">
-        <v>0.4082053876877975</v>
-      </c>
-      <c r="J25">
-        <v>0.4276795951887961</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.211763</v>
+        <v>1.455650333333333</v>
       </c>
       <c r="N25">
-        <v>0.635289</v>
+        <v>4.366950999999999</v>
       </c>
       <c r="O25">
-        <v>0.01564326590065293</v>
+        <v>0.3124262254102885</v>
       </c>
       <c r="P25">
-        <v>0.01566104407453534</v>
+        <v>0.3303286977618864</v>
       </c>
       <c r="Q25">
-        <v>0.1957809640393333</v>
+        <v>0.2680206471914444</v>
       </c>
       <c r="R25">
-        <v>1.762028676354</v>
+        <v>2.412185824723</v>
       </c>
       <c r="S25">
-        <v>0.00638566542167933</v>
+        <v>0.04079263478845659</v>
       </c>
       <c r="T25">
-        <v>0.006697908990031168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.9245286666666667</v>
-      </c>
-      <c r="H26">
-        <v>2.773586</v>
-      </c>
-      <c r="I26">
-        <v>0.4082053876877975</v>
-      </c>
-      <c r="J26">
-        <v>0.4276795951887961</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>9.402639333333333</v>
-      </c>
-      <c r="N26">
-        <v>28.207918</v>
-      </c>
-      <c r="O26">
-        <v>0.6945877573479375</v>
-      </c>
-      <c r="P26">
-        <v>0.6953771386705557</v>
-      </c>
-      <c r="Q26">
-        <v>8.693009605994222</v>
-      </c>
-      <c r="R26">
-        <v>78.237086453948</v>
-      </c>
-      <c r="S26">
-        <v>0.2835344647714126</v>
-      </c>
-      <c r="T26">
-        <v>0.2973986131701666</v>
+        <v>0.05487505274854763</v>
       </c>
     </row>
   </sheetData>
